--- a/LAB-2/zad-3-płatki-śniadaniowe/MED-Lab-2-Zad_3-Platki-sniadaniowe/Płatki-sniadaniowe-cereals.xlsx
+++ b/LAB-2/zad-3-płatki-śniadaniowe/MED-Lab-2-Zad_3-Platki-sniadaniowe/Płatki-sniadaniowe-cereals.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WAT\Wyklady\Med\Laboratorium\Dane\Platki sniadaniowe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleza\Desktop\WAT\WAT SEMESTR 5\Metody Eksploracji Danych\LAB-2\zad-3-płatki-śniadaniowe\MED-Lab-2-Zad_3-Platki-sniadaniowe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E04757-1E6A-4C1A-A606-08C48542082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6EFDCE-BB50-4D1D-822D-70A6F178A369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26010" yWindow="135" windowWidth="22215" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="-345" windowWidth="19185" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Platki sniadaniowe" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Platki sniadaniowe'!$A$1:$O$78</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -864,9 +867,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -904,7 +907,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1010,7 +1013,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1152,7 +1155,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1160,10 +1163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1457,52 +1461,52 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I7">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1551,52 +1555,52 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1739,7 +1743,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1748,37 +1752,37 @@
         <v>110</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1786,34 +1790,34 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1833,7 +1837,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1842,45 +1846,45 @@
         <v>110</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>140</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1889,43 +1893,43 @@
         <v>110</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>180</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J16">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1972,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2019,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2068,52 +2072,52 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2256,52 +2260,52 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J24">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2583,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2679,52 +2683,52 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J33">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2914,52 +2918,52 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="I38">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3102,7 +3106,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -3111,25 +3115,25 @@
         <v>110</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3147,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3196,52 +3200,52 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -3382,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -3431,7 +3435,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -3440,43 +3444,43 @@
         <v>100</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J49">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" t="s">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -3523,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -3570,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -3619,52 +3623,52 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I53">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" t="s">
         <v>1</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -3852,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -3995,19 +3999,19 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -4019,10 +4023,10 @@
         <v>140</v>
       </c>
       <c r="I61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -4040,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -4087,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -4181,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -4322,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -4416,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -4465,19 +4469,19 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E71">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -4486,95 +4490,95 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71" t="s">
         <v>1</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D72">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="C73">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -4583,10 +4587,10 @@
         <v>200</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -4606,34 +4610,34 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74">
+        <v>100</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>200</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
         <v>110</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>21</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>250</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>60</v>
       </c>
       <c r="K74">
         <v>3</v>
@@ -4653,7 +4657,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -4662,43 +4666,43 @@
         <v>110</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L75" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -4794,7 +4798,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -4803,25 +4807,25 @@
         <v>110</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -4840,6 +4844,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O78" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="G"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:O78">
+      <sortCondition descending="1" ref="D2:D78"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>